--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_Estacionario_ARMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.1820354167712536</v>
+        <v>0.2311936337545805</v>
       </c>
       <c r="D2">
-        <v>0.8555769059267577</v>
+        <v>0.819301027146599</v>
       </c>
       <c r="E2">
         <v>0.6984898702532021</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.8588268516614638</v>
+        <v>0.7259912297960728</v>
       </c>
       <c r="D3">
-        <v>0.3905586419238463</v>
+        <v>0.4754974572130677</v>
       </c>
       <c r="E3">
         <v>0.6984898702532021</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>2.369732906171633</v>
+        <v>1.845074836922812</v>
       </c>
       <c r="D4">
-        <v>0.01791343502234843</v>
+        <v>0.07853162642023404</v>
       </c>
       <c r="E4">
         <v>0.6984898702532021</v>
@@ -505,7 +505,7 @@
         <v>0.6356338835273286</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>3.254118096287435</v>
+        <v>2.94676437889888</v>
       </c>
       <c r="D5">
-        <v>0.001160065557428425</v>
+        <v>0.007458250450645965</v>
       </c>
       <c r="E5">
         <v>0.6984898702532021</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.6051274316371753</v>
+        <v>0.5429301262456993</v>
       </c>
       <c r="D6">
-        <v>0.5451761044887979</v>
+        <v>0.5926365800552444</v>
       </c>
       <c r="E6">
         <v>0.693675081876339</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>2.365533364455606</v>
+        <v>2.129855911196404</v>
       </c>
       <c r="D7">
-        <v>0.01811719698099035</v>
+        <v>0.04461406075880214</v>
       </c>
       <c r="E7">
         <v>0.693675081876339</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>2.724857753175434</v>
+        <v>3.173636740993039</v>
       </c>
       <c r="D8">
-        <v>0.006499672971055359</v>
+        <v>0.004396590026047198</v>
       </c>
       <c r="E8">
         <v>0.693675081876339</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>1.640428355249938</v>
+        <v>1.228911409267549</v>
       </c>
       <c r="D9">
-        <v>0.1011034439069902</v>
+        <v>0.2320884271663823</v>
       </c>
       <c r="E9">
         <v>0.6775758881493493</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>2.401054772154157</v>
+        <v>2.947826918743542</v>
       </c>
       <c r="D10">
-        <v>0.01645606488400575</v>
+        <v>0.007439998481404198</v>
       </c>
       <c r="E10">
         <v>0.6775758881493493</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.5897020430132448</v>
+        <v>0.5955171939783672</v>
       </c>
       <c r="D11">
-        <v>0.5554697693788277</v>
+        <v>0.557574967669715</v>
       </c>
       <c r="E11">
         <v>0.6356338835273286</v>
